--- a/Implement_google_AdaptiveFL/ExperimentRecords.xlsx
+++ b/Implement_google_AdaptiveFL/ExperimentRecords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KuihaoFL\Implement_google_AdaptiveFL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BED5A0B-0044-493C-B7DC-1CF1ADA2DE0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F84E7A9-F552-4607-A8E1-681C81A8E3B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22118" windowHeight="8502" xr2:uid="{0F73F181-28AE-4BA3-A7EA-88CE7E039F5D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>Aggregation</t>
   </si>
@@ -79,12 +79,6 @@
   </si>
   <si>
     <t>FedAdagrad</t>
-  </si>
-  <si>
-    <t>FedAdam</t>
-  </si>
-  <si>
-    <t>FedYogi</t>
   </si>
   <si>
     <t>PAPER</t>
@@ -160,15 +154,55 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>7hr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7hr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*使用minmax正規化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FedAdam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FedYogi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消論文的資料增量方式，檢視加入資料增量前後的差異</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="185" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -197,8 +231,14 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,6 +248,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -226,7 +272,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -239,23 +285,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,22 +650,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9E8C63-6188-4D0F-998D-570A01732085}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="1"/>
     <col min="2" max="3" width="15.19921875" style="1" customWidth="1"/>
-    <col min="4" max="6" width="15.19921875" style="6" customWidth="1"/>
-    <col min="7" max="10" width="15.19921875" style="7" customWidth="1"/>
-    <col min="11" max="16384" width="8.796875" style="3"/>
+    <col min="4" max="6" width="15.19921875" style="4" customWidth="1"/>
+    <col min="7" max="10" width="15.19921875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="8.796875" style="13"/>
+    <col min="12" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -615,19 +695,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>7</v>
@@ -642,212 +722,362 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="20">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="5">
-        <v>-1</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0.44700000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="5">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="I5" s="5">
+        <v>4.5019999999999998</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="E6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0.44700000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="7">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0.84</v>
-      </c>
-      <c r="I5" s="7">
-        <v>4.5019999999999998</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="7">
+      <c r="G6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="12">
         <v>0.52400000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="7">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="5">
         <v>0.15540000000000001</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="5">
         <v>0.95350000000000001</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="5">
         <v>5.5955000000000004</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="10">
         <v>0.1638</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="6">
+      <c r="C8" s="7"/>
+      <c r="D8" s="4">
         <v>-1</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>-1</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="4">
         <v>-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J8" s="12">
+        <v>0.47899999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.19128999999999999</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.94343999999999995</v>
+      </c>
+      <c r="I9" s="5">
+        <v>12.646800000000001</v>
+      </c>
+      <c r="J9" s="5">
+        <v>7.8E-2</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="6">
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="4">
         <f>-3/2</f>
         <v>-1.5</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E11" s="4">
         <v>0</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F11" s="4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="J11" s="12">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="6">
+      <c r="C12" s="7"/>
+      <c r="D12" s="14">
         <f>-3/2</f>
         <v>-1.5</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="14">
         <v>0</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="14">
         <v>-1</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="G12" s="5">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.89690000000000003</v>
+      </c>
+      <c r="I12" s="5">
+        <v>6.423</v>
+      </c>
+      <c r="J12" s="10">
+        <v>0.1923</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="4">
+        <f>-3/2</f>
+        <v>-1.5</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0.52400000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="1">
+        <v>-1.5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.32911000000000001</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="I14" s="6">
+        <v>5.3682999999999996</v>
+      </c>
+      <c r="J14" s="10">
+        <v>0.23960000000000001</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="9">
+        <v>-1.5</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0.94840000000000002</v>
+      </c>
+      <c r="I15" s="8">
+        <v>4.7967000000000004</v>
+      </c>
+      <c r="J15" s="10">
+        <v>0.32050000000000001</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D16" s="15">
+        <v>-1.5</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0</v>
+      </c>
+      <c r="F16" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1.6489E-4</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5">
+        <v>4.0859946799999998</v>
+      </c>
+      <c r="J16" s="10">
+        <v>0.32474999999999998</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
@@ -859,10 +1089,9 @@
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="C3:C5"/>
-    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Implement_google_AdaptiveFL/ExperimentRecords.xlsx
+++ b/Implement_google_AdaptiveFL/ExperimentRecords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KuihaoFL\Implement_google_AdaptiveFL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F84E7A9-F552-4607-A8E1-681C81A8E3B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821DA027-B83F-46BB-AA47-40E9FAE5AA14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22118" windowHeight="8502" xr2:uid="{0F73F181-28AE-4BA3-A7EA-88CE7E039F5D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
   <si>
     <t>Aggregation</t>
   </si>
@@ -142,6 +142,41 @@
     <t>0</t>
   </si>
   <si>
+    <t>7hr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7hr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FedAdam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FedYogi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -150,48 +185,47 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>發散</t>
+      <t>使用</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7hr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7hr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*使用minmax正規化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FedAdam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FedYogi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消論文的資料增量方式，檢視加入資料增量前後的差異</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>minmax</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>正規化</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>取消論文的資料增量方式，檢視加入資料增量前後的差異</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發散</t>
+  </si>
+  <si>
+    <t>發散</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -202,7 +236,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -237,6 +271,20 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -272,62 +320,47 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -650,429 +683,439 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9E8C63-6188-4D0F-998D-570A01732085}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.55" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="1"/>
-    <col min="2" max="3" width="15.19921875" style="1" customWidth="1"/>
-    <col min="4" max="6" width="15.19921875" style="4" customWidth="1"/>
-    <col min="7" max="10" width="15.19921875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="8.796875" style="13"/>
-    <col min="12" max="16384" width="8.796875" style="3"/>
+    <col min="1" max="1" width="8.796875" style="6"/>
+    <col min="2" max="3" width="15.19921875" style="6" customWidth="1"/>
+    <col min="4" max="6" width="15.19921875" style="8" customWidth="1"/>
+    <col min="7" max="10" width="15.19921875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="8.796875" style="9"/>
+    <col min="12" max="16384" width="8.796875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:12" ht="16.149999999999999" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="15">
         <v>-1</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="5">
         <v>0.44700000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:12" ht="16.149999999999999" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="11" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="4">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="8">
         <v>0</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="5">
+      <c r="F5" s="15"/>
+      <c r="G5" s="7">
         <v>0.54600000000000004</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="7">
         <v>0.84</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="7">
         <v>4.5019999999999998</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="3">
         <v>0.17</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="5">
         <v>0.52400000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="5">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="7">
         <v>0.15540000000000001</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="7">
         <v>0.95350000000000001</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="7">
         <v>5.5955000000000004</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="3">
         <v>0.1638</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="4">
+      <c r="C8" s="2"/>
+      <c r="D8" s="8">
         <v>-1</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="8">
         <v>-1</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="8">
         <v>-2</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="5">
         <v>0.47899999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:12" ht="16.149999999999999" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.19128999999999999</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.94343999999999995</v>
+      </c>
+      <c r="I9" s="7">
+        <v>12.646800000000001</v>
+      </c>
+      <c r="J9" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C10" s="2"/>
+      <c r="D10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0.19128999999999999</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0.94343999999999995</v>
-      </c>
-      <c r="I9" s="5">
-        <v>12.646800000000001</v>
-      </c>
-      <c r="J9" s="5">
-        <v>7.8E-2</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
+      <c r="F10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="6">
+        <v>-4</v>
+      </c>
+      <c r="F11" s="6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="4">
+      <c r="B12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="8">
         <f>-3/2</f>
         <v>-1.5</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E12" s="8">
         <v>0</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F12" s="8">
         <v>-1</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J12" s="5">
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="14">
+      <c r="C13" s="2"/>
+      <c r="D13" s="8">
         <f>-3/2</f>
         <v>-1.5</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E13" s="8">
         <v>0</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F13" s="8">
         <v>-1</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G13" s="7">
         <v>0.33500000000000002</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H13" s="7">
         <v>0.89690000000000003</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I13" s="7">
         <v>6.423</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J13" s="3">
         <v>0.1923</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="4">
+      <c r="B14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="8">
         <f>-3/2</f>
         <v>-1.5</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E14" s="8">
         <v>0</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F14" s="8">
         <v>-1</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J14" s="5">
         <v>0.52400000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="1">
+      <c r="C15" s="2"/>
+      <c r="D15" s="6">
         <v>-1.5</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E15" s="6">
         <v>0</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F15" s="6">
         <v>-1</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G15" s="7">
         <v>0.32911000000000001</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H15" s="7">
         <v>0.89700000000000002</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I15" s="7">
         <v>5.3682999999999996</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J15" s="3">
         <v>0.23960000000000001</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K15" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16.149999999999999" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="6">
+        <v>-1.5</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.94840000000000002</v>
+      </c>
+      <c r="I16" s="7">
+        <v>4.7967000000000004</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.32050000000000001</v>
+      </c>
+      <c r="K16" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="9">
+      <c r="L16" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" ht="16.149999999999999" x14ac:dyDescent="0.3">
+      <c r="D17" s="6">
         <v>-1.5</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E17" s="6">
         <v>0</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F17" s="6">
         <v>-1</v>
       </c>
-      <c r="G15" s="8">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="H15" s="8">
-        <v>0.94840000000000002</v>
-      </c>
-      <c r="I15" s="8">
-        <v>4.7967000000000004</v>
-      </c>
-      <c r="J15" s="10">
-        <v>0.32050000000000001</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D16" s="15">
-        <v>-1.5</v>
-      </c>
-      <c r="E16" s="15">
-        <v>0</v>
-      </c>
-      <c r="F16" s="15">
-        <v>-1</v>
-      </c>
-      <c r="G16" s="5">
+      <c r="G17" s="7">
         <v>1.6489E-4</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H17" s="7">
         <v>1</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I17" s="7">
         <v>4.0859946799999998</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J17" s="3">
         <v>0.32474999999999998</v>
       </c>
-      <c r="K16" s="13" t="s">
-        <v>34</v>
+      <c r="K17" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Implement_google_AdaptiveFL/ExperimentRecords.xlsx
+++ b/Implement_google_AdaptiveFL/ExperimentRecords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KuihaoFL\Implement_google_AdaptiveFL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821DA027-B83F-46BB-AA47-40E9FAE5AA14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A64B61C-F714-4969-8F41-7FE14BD147E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22118" windowHeight="8502" xr2:uid="{0F73F181-28AE-4BA3-A7EA-88CE7E039F5D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
   <si>
     <t>Aggregation</t>
   </si>
@@ -228,6 +228,22 @@
     <t>發散</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發散?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overfit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -236,7 +252,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -285,6 +301,18 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -320,7 +348,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -360,6 +388,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -367,6 +404,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -683,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9E8C63-6188-4D0F-998D-570A01732085}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="D12" sqref="D12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.55" x14ac:dyDescent="0.3"/>
@@ -699,7 +742,7 @@
     <col min="12" max="16384" width="8.796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -728,7 +771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16.149999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="16.149999999999999" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -755,23 +798,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="18">
         <v>-1</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="18" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="7" t="s">
@@ -787,34 +830,34 @@
         <v>0.44700000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16.149999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:11" ht="16.149999999999999" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="13" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
       <c r="K4" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="15"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="8">
         <v>0</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="7">
         <v>0.54600000000000004</v>
       </c>
@@ -828,23 +871,23 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="18" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
@@ -860,15 +903,15 @@
         <v>0.52400000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
       <c r="G7" s="7">
         <v>0.15540000000000001</v>
       </c>
@@ -882,7 +925,7 @@
         <v>0.1638</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -903,7 +946,7 @@
         <v>0.47899999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16.149999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="16.149999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
@@ -926,14 +969,14 @@
       <c r="I9" s="7">
         <v>12.646800000000001</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="19">
         <v>7.8E-2</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="16.149999999999999" x14ac:dyDescent="0.3">
       <c r="C10" s="2"/>
       <c r="D10" s="8" t="s">
         <v>28</v>
@@ -944,76 +987,109 @@
       <c r="F10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G10" s="7">
+        <v>2.1371129999999998</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.43856000000000001</v>
+      </c>
+      <c r="I10" s="7">
+        <v>30.382121000000001</v>
+      </c>
+      <c r="J10" s="19">
+        <v>4.6879999999999998E-2</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="12" customFormat="1" ht="16.149999999999999" x14ac:dyDescent="0.3">
       <c r="C11" s="2"/>
-      <c r="D11" s="6">
+      <c r="D11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="13">
+        <v>3.4929999999999999</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.17643900000000001</v>
+      </c>
+      <c r="I11" s="13">
+        <v>5.3277000000000001</v>
+      </c>
+      <c r="J11" s="19">
+        <v>6.3799999999999996E-2</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="12" customFormat="1" ht="16.149999999999999" x14ac:dyDescent="0.3">
+      <c r="C12" s="2"/>
+      <c r="D12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0.72512799999999999</v>
+      </c>
+      <c r="H12" s="20">
+        <v>0.79700998999999995</v>
+      </c>
+      <c r="I12" s="13">
+        <v>983.02229999999997</v>
+      </c>
+      <c r="J12" s="19">
+        <v>1.025E-2</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.149999999999999" x14ac:dyDescent="0.3">
+      <c r="C13" s="2"/>
+      <c r="D13" s="6">
         <v>-1</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E13" s="6">
         <v>-4</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F13" s="6">
         <v>-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="8">
-        <f>-3/2</f>
-        <v>-1.5</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8">
-        <v>-1</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0.52500000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="8">
-        <f>-3/2</f>
-        <v>-1.5</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0</v>
-      </c>
-      <c r="F13" s="8">
-        <v>-1</v>
-      </c>
       <c r="G13" s="7">
-        <v>0.33500000000000002</v>
+        <v>3.6149800000000001</v>
       </c>
       <c r="H13" s="7">
-        <v>0.89690000000000003</v>
-      </c>
-      <c r="I13" s="7">
-        <v>6.423</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0.1923</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.15959999999999999</v>
+      </c>
+      <c r="I13" s="13">
+        <v>232.63688769999999</v>
+      </c>
+      <c r="J13" s="19">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="8">
@@ -1027,72 +1103,64 @@
         <v>-1</v>
       </c>
       <c r="J14" s="5">
-        <v>0.52400000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="6">
+      <c r="D15" s="8">
+        <f>-3/2</f>
         <v>-1.5</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="8">
         <v>0</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="8">
         <v>-1</v>
       </c>
       <c r="G15" s="7">
-        <v>0.32911000000000001</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="H15" s="7">
-        <v>0.89700000000000002</v>
+        <v>0.89690000000000003</v>
       </c>
       <c r="I15" s="7">
-        <v>5.3682999999999996</v>
+        <v>6.423</v>
       </c>
       <c r="J15" s="3">
-        <v>0.23960000000000001</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="16.149999999999999" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+        <v>0.1923</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="8">
+        <f>-3/2</f>
+        <v>-1.5</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <v>-1</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0.52400000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="6">
-        <v>-1.5</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0.94840000000000002</v>
-      </c>
-      <c r="I16" s="7">
-        <v>4.7967000000000004</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0.32050000000000001</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="4:11" ht="16.149999999999999" x14ac:dyDescent="0.3">
+      <c r="C17" s="2"/>
       <c r="D17" s="6">
         <v>-1.5</v>
       </c>
@@ -1103,18 +1171,76 @@
         <v>-1</v>
       </c>
       <c r="G17" s="7">
+        <v>0.32911000000000001</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="I17" s="7">
+        <v>5.3682999999999996</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.23960000000000001</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16.149999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="6">
+        <v>-1.5</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0.94840000000000002</v>
+      </c>
+      <c r="I18" s="7">
+        <v>4.7967000000000004</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0.32050000000000001</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="16.149999999999999" x14ac:dyDescent="0.3">
+      <c r="D19" s="6">
+        <v>-1.5</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="7">
         <v>1.6489E-4</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H19" s="7">
         <v>1</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I19" s="7">
         <v>4.0859946799999998</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J19" s="3">
         <v>0.32474999999999998</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K19" s="9" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Implement_google_AdaptiveFL/ExperimentRecords.xlsx
+++ b/Implement_google_AdaptiveFL/ExperimentRecords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KuihaoFL\Implement_google_AdaptiveFL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A64B61C-F714-4969-8F41-7FE14BD147E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BEC732-2363-4EF2-9672-B3DF9A7CE0EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22118" windowHeight="8502" xr2:uid="{0F73F181-28AE-4BA3-A7EA-88CE7E039F5D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t>Aggregation</t>
   </si>
@@ -244,6 +244,124 @@
     <t>overfit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>集中式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 400 rounds, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>取最後</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>100round Avg</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12_05_2021__17_07_30_test_saving_200round_centro_cifar100_noniid_resnet18_fedyogi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SDG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>集中式</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>集中式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>400rounds, take last 100 rounds avg.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12_05_2021__17_11_38_NewCode_400round_centro_cifar100_noniid_resnet18_SDG</t>
+  </si>
+  <si>
+    <r>
+      <t>YOGI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>集中式</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -252,7 +370,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -313,8 +431,22 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,6 +465,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -348,7 +486,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -397,6 +535,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -406,10 +559,13 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -726,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9E8C63-6188-4D0F-998D-570A01732085}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:F12"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.55" x14ac:dyDescent="0.3"/>
@@ -738,11 +894,11 @@
     <col min="2" max="3" width="15.19921875" style="6" customWidth="1"/>
     <col min="4" max="6" width="15.19921875" style="8" customWidth="1"/>
     <col min="7" max="10" width="15.19921875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="8.796875" style="9"/>
-    <col min="12" max="16384" width="8.796875" style="6"/>
+    <col min="11" max="17" width="8.796875" style="9"/>
+    <col min="18" max="16384" width="8.796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -771,7 +927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.149999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="16.149999999999999" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -797,24 +953,27 @@
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="P2" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="23">
         <v>-1</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="7" t="s">
@@ -830,34 +989,34 @@
         <v>0.44700000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.149999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:17" ht="16.149999999999999" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="16" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
       <c r="K4" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="18"/>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="8">
         <v>0</v>
       </c>
-      <c r="F5" s="18"/>
+      <c r="F5" s="23"/>
       <c r="G5" s="7">
         <v>0.54600000000000004</v>
       </c>
@@ -871,166 +1030,172 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:17" s="15" customFormat="1" ht="16.149999999999999" x14ac:dyDescent="0.3">
+      <c r="B6" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="16">
+        <v>0.12518399999999999</v>
+      </c>
+      <c r="H6" s="16">
+        <v>0.96038599999999996</v>
+      </c>
+      <c r="I6" s="16">
+        <v>7.6691320000000003</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.20114000000000001</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q6" s="9"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J7" s="5">
         <v>0.52400000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="7">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="7">
         <v>0.15540000000000001</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H8" s="7">
         <v>0.95350000000000001</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I8" s="7">
         <v>5.5955000000000004</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J8" s="3">
         <v>0.1638</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8">
+      <c r="C9" s="2"/>
+      <c r="D9" s="8">
         <v>-1</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E9" s="8">
         <v>-1</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F9" s="8">
         <v>-2</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J9" s="5">
         <v>0.47899999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16.149999999999999" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+    <row r="10" spans="1:17" ht="16.149999999999999" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0.19128999999999999</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0.94343999999999995</v>
-      </c>
-      <c r="I9" s="7">
-        <v>12.646800000000001</v>
-      </c>
-      <c r="J9" s="19">
-        <v>7.8E-2</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="16.149999999999999" x14ac:dyDescent="0.3">
       <c r="C10" s="2"/>
       <c r="D10" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="7">
+        <v>0.19128999999999999</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.94343999999999995</v>
+      </c>
+      <c r="I10" s="7">
+        <v>12.646800000000001</v>
+      </c>
+      <c r="J10" s="18">
+        <v>7.8E-2</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.149999999999999" x14ac:dyDescent="0.3">
+      <c r="C11" s="2"/>
+      <c r="D11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="7">
         <v>2.1371129999999998</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H11" s="7">
         <v>0.43856000000000001</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I11" s="7">
         <v>30.382121000000001</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J11" s="18">
         <v>4.6879999999999998E-2</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K11" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="12" customFormat="1" ht="16.149999999999999" x14ac:dyDescent="0.3">
-      <c r="C11" s="2"/>
-      <c r="D11" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="13">
-        <v>3.4929999999999999</v>
-      </c>
-      <c r="H11" s="13">
-        <v>0.17643900000000001</v>
-      </c>
-      <c r="I11" s="13">
-        <v>5.3277000000000001</v>
-      </c>
-      <c r="J11" s="19">
-        <v>6.3799999999999996E-2</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="12" customFormat="1" ht="16.149999999999999" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" s="12" customFormat="1" ht="16.149999999999999" x14ac:dyDescent="0.3">
       <c r="C12" s="2"/>
       <c r="D12" s="14" t="s">
         <v>37</v>
@@ -1039,76 +1204,96 @@
         <v>36</v>
       </c>
       <c r="F12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="13">
+        <v>3.4929999999999999</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0.17643900000000001</v>
+      </c>
+      <c r="I12" s="13">
+        <v>5.3277000000000001</v>
+      </c>
+      <c r="J12" s="18">
+        <v>6.3799999999999996E-2</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+    </row>
+    <row r="13" spans="1:17" s="12" customFormat="1" ht="16.149999999999999" x14ac:dyDescent="0.3">
+      <c r="C13" s="2"/>
+      <c r="D13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="13">
+      <c r="F13" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="13">
         <v>0.72512799999999999</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H13" s="19">
         <v>0.79700998999999995</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I13" s="13">
         <v>983.02229999999997</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J13" s="18">
         <v>1.025E-2</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K13" s="10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="16.149999999999999" x14ac:dyDescent="0.3">
-      <c r="C13" s="2"/>
-      <c r="D13" s="6">
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+    </row>
+    <row r="14" spans="1:17" ht="16.149999999999999" x14ac:dyDescent="0.3">
+      <c r="C14" s="2"/>
+      <c r="D14" s="6">
         <v>-1</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E14" s="6">
         <v>-4</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F14" s="6">
         <v>-2</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G14" s="7">
         <v>3.6149800000000001</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H14" s="7">
         <v>0.15959999999999999</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I14" s="13">
         <v>232.63688769999999</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J14" s="18">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K14" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B15" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="8">
-        <f>-3/2</f>
-        <v>-1.5</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>-1</v>
-      </c>
-      <c r="J14" s="5">
-        <v>0.52500000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="8">
@@ -1121,25 +1306,13 @@
       <c r="F15" s="8">
         <v>-1</v>
       </c>
-      <c r="G15" s="7">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0.89690000000000003</v>
-      </c>
-      <c r="I15" s="7">
-        <v>6.423</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0.1923</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>27</v>
+      <c r="J15" s="5">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="8">
@@ -1152,44 +1325,46 @@
       <c r="F16" s="8">
         <v>-1</v>
       </c>
-      <c r="J16" s="5">
+      <c r="G16" s="7">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.89690000000000003</v>
+      </c>
+      <c r="I16" s="7">
+        <v>6.423</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.1923</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="8">
+        <f>-3/2</f>
+        <v>-1.5</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
+        <v>-1</v>
+      </c>
+      <c r="J17" s="5">
         <v>0.52400000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="6">
-        <v>-1.5</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0.32911000000000001</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="I17" s="7">
-        <v>5.3682999999999996</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0.23960000000000001</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="16.149999999999999" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="6">
         <v>-1.5</v>
       </c>
@@ -1200,25 +1375,25 @@
         <v>-1</v>
       </c>
       <c r="G18" s="7">
-        <v>0.16400000000000001</v>
+        <v>0.32911000000000001</v>
       </c>
       <c r="H18" s="7">
-        <v>0.94840000000000002</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="I18" s="7">
-        <v>4.7967000000000004</v>
+        <v>5.3682999999999996</v>
       </c>
       <c r="J18" s="3">
-        <v>0.32050000000000001</v>
+        <v>0.23960000000000001</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="16.149999999999999" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="16.149999999999999" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="D19" s="6">
         <v>-1.5</v>
       </c>
@@ -1229,30 +1404,91 @@
         <v>-1</v>
       </c>
       <c r="G19" s="7">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.94840000000000002</v>
+      </c>
+      <c r="I19" s="7">
+        <v>4.7967000000000004</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0.32050000000000001</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="16.149999999999999" x14ac:dyDescent="0.3">
+      <c r="D20" s="6">
+        <v>-1.5</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="7">
         <v>1.6489E-4</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H20" s="7">
         <v>1</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I20" s="7">
         <v>4.0859946799999998</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J20" s="3">
         <v>0.32474999999999998</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K20" s="9" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="16.149999999999999" x14ac:dyDescent="0.3">
+      <c r="B21" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.12773100000000001</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.96070659999999997</v>
+      </c>
+      <c r="I21" s="7">
+        <v>8.0871499999999994</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0.19053100000000001</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G4:J4"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="D3:D5"/>
